--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Elnet Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Elnet Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -645,16 +645,16 @@
         <v>2.44</v>
       </c>
       <c r="I2">
-        <v>8.889999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J2">
-        <v>0.06857142857142859</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K2">
         <v>25.51</v>
       </c>
       <c r="L2">
-        <v>0.3035714285714285</v>
+        <v>0.3</v>
       </c>
       <c r="M2">
         <v>4.4</v>
@@ -681,7 +681,7 @@
         <v>0.02</v>
       </c>
       <c r="U2">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V2">
         <v>35.97</v>
@@ -696,7 +696,7 @@
         <v>4.92</v>
       </c>
       <c r="Z2">
-        <v>2.253571428571429</v>
+        <v>2.25</v>
       </c>
       <c r="AA2">
         <v>10.65</v>
@@ -737,16 +737,16 @@
         <v>2.8</v>
       </c>
       <c r="I3">
-        <v>8.889999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J3">
-        <v>0.06857142857142859</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K3">
         <v>26.94</v>
       </c>
       <c r="L3">
-        <v>0.3035714285714285</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
         <v>5.56</v>
@@ -773,7 +773,7 @@
         <v>0.03</v>
       </c>
       <c r="U3">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V3">
         <v>40.84</v>
@@ -788,7 +788,7 @@
         <v>6.87</v>
       </c>
       <c r="Z3">
-        <v>2.253571428571429</v>
+        <v>2.25</v>
       </c>
       <c r="AA3">
         <v>11.65</v>
@@ -829,16 +829,16 @@
         <v>3.21</v>
       </c>
       <c r="I4">
-        <v>8.889999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J4">
-        <v>0.06857142857142859</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K4">
         <v>23.02</v>
       </c>
       <c r="L4">
-        <v>0.3035714285714285</v>
+        <v>0.3</v>
       </c>
       <c r="M4">
         <v>6.48</v>
@@ -865,7 +865,7 @@
         <v>0.04</v>
       </c>
       <c r="U4">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V4">
         <v>42.95</v>
@@ -880,7 +880,7 @@
         <v>8.41</v>
       </c>
       <c r="Z4">
-        <v>2.253571428571429</v>
+        <v>2.25</v>
       </c>
       <c r="AA4">
         <v>11.01</v>
@@ -921,16 +921,16 @@
         <v>3.54</v>
       </c>
       <c r="I5">
-        <v>8.889999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J5">
-        <v>0.06857142857142859</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K5">
         <v>23.54</v>
       </c>
       <c r="L5">
-        <v>0.3035714285714285</v>
+        <v>0.3</v>
       </c>
       <c r="M5">
         <v>8.01</v>
@@ -957,7 +957,7 @@
         <v>0.06</v>
       </c>
       <c r="U5">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V5">
         <v>45.76</v>
@@ -972,7 +972,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="Z5">
-        <v>2.253571428571429</v>
+        <v>2.25</v>
       </c>
       <c r="AA5">
         <v>12.71</v>
@@ -1013,16 +1013,16 @@
         <v>3.47</v>
       </c>
       <c r="I6">
-        <v>8.889999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J6">
-        <v>0.06857142857142859</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K6">
         <v>20.58</v>
       </c>
       <c r="L6">
-        <v>0.3035714285714285</v>
+        <v>0.3</v>
       </c>
       <c r="M6">
         <v>10.46</v>
@@ -1049,7 +1049,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="U6">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V6">
         <v>45.58</v>
@@ -1064,7 +1064,7 @@
         <v>11.98</v>
       </c>
       <c r="Z6">
-        <v>2.253571428571429</v>
+        <v>2.25</v>
       </c>
       <c r="AA6">
         <v>17.63</v>
@@ -1105,16 +1105,16 @@
         <v>3.47</v>
       </c>
       <c r="I7">
-        <v>8.889999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J7">
-        <v>0.06857142857142859</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K7">
         <v>17.29</v>
       </c>
       <c r="L7">
-        <v>0.3035714285714285</v>
+        <v>0.3</v>
       </c>
       <c r="M7">
         <v>9.220000000000001</v>
@@ -1141,7 +1141,7 @@
         <v>0.29</v>
       </c>
       <c r="U7">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V7">
         <v>43.78</v>
@@ -1156,7 +1156,7 @@
         <v>11.69</v>
       </c>
       <c r="Z7">
-        <v>2.253571428571429</v>
+        <v>2.25</v>
       </c>
       <c r="AA7">
         <v>17.81</v>
@@ -1230,10 +1230,10 @@
         <v>3.13</v>
       </c>
       <c r="T8">
-        <v>0.03999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U8">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V8">
         <v>43.69</v>
@@ -1322,10 +1322,10 @@
         <v>3.13</v>
       </c>
       <c r="T9">
-        <v>0.03999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U9">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V9">
         <v>43.64</v>
@@ -1414,10 +1414,10 @@
         <v>3.13</v>
       </c>
       <c r="T10">
-        <v>0.03999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U10">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V10">
         <v>47.66</v>
@@ -1506,7 +1506,7 @@
         <v>3.13</v>
       </c>
       <c r="T11">
-        <v>0.03999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U11">
         <v>1.55</v>
@@ -1598,7 +1598,7 @@
         <v>3.13</v>
       </c>
       <c r="T12">
-        <v>0.03999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U12">
         <v>1.3</v>
@@ -1690,10 +1690,10 @@
         <v>7.13</v>
       </c>
       <c r="T13">
-        <v>0.03999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U13">
-        <v>27.111</v>
+        <v>27.11</v>
       </c>
       <c r="V13">
         <v>45.84</v>
@@ -1743,7 +1743,7 @@
         <v>59.12</v>
       </c>
       <c r="G14">
-        <v>12.33166666666667</v>
+        <v>12.33</v>
       </c>
       <c r="H14">
         <v>0.63</v>
@@ -1782,7 +1782,7 @@
         <v>7.36</v>
       </c>
       <c r="T14">
-        <v>0.03999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U14">
         <v>27.22</v>
@@ -1797,7 +1797,7 @@
         <v>16.98</v>
       </c>
       <c r="Y14">
-        <v>4.538333333333333</v>
+        <v>4.54</v>
       </c>
       <c r="Z14">
         <v>1.33</v>
@@ -1809,7 +1809,7 @@
         <v>78.06999999999999</v>
       </c>
       <c r="AC14">
-        <v>9.951538461538462</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD14">
         <v>3.08</v>
@@ -1835,7 +1835,7 @@
         <v>67.76000000000001</v>
       </c>
       <c r="G15">
-        <v>12.33166666666667</v>
+        <v>12.33</v>
       </c>
       <c r="H15">
         <v>0.62</v>
@@ -1874,7 +1874,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="T15">
-        <v>0.03999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U15">
         <v>12.21</v>
@@ -1889,7 +1889,7 @@
         <v>40.22</v>
       </c>
       <c r="Y15">
-        <v>4.538333333333333</v>
+        <v>4.54</v>
       </c>
       <c r="Z15">
         <v>2.65</v>
@@ -1901,7 +1901,7 @@
         <v>88.37</v>
       </c>
       <c r="AC15">
-        <v>9.951538461538462</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD15">
         <v>3.03</v>
@@ -1927,7 +1927,7 @@
         <v>75.20999999999999</v>
       </c>
       <c r="G16">
-        <v>12.33166666666667</v>
+        <v>12.33</v>
       </c>
       <c r="H16">
         <v>0.23</v>
@@ -1966,7 +1966,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="T16">
-        <v>0.03999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U16">
         <v>13.06</v>
@@ -1981,7 +1981,7 @@
         <v>43.73</v>
       </c>
       <c r="Y16">
-        <v>4.538333333333333</v>
+        <v>4.54</v>
       </c>
       <c r="Z16">
         <v>1.65</v>
@@ -1993,7 +1993,7 @@
         <v>94.77</v>
       </c>
       <c r="AC16">
-        <v>9.951538461538462</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD16">
         <v>3.03</v>
@@ -2019,10 +2019,10 @@
         <v>85.34</v>
       </c>
       <c r="G17">
-        <v>12.33166666666667</v>
+        <v>12.33</v>
       </c>
       <c r="H17">
-        <v>2.254666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="I17">
         <v>10.48</v>
@@ -2073,7 +2073,7 @@
         <v>25.45</v>
       </c>
       <c r="Y17">
-        <v>4.538333333333333</v>
+        <v>4.54</v>
       </c>
       <c r="Z17">
         <v>2.11</v>
@@ -2085,7 +2085,7 @@
         <v>105.38</v>
       </c>
       <c r="AC17">
-        <v>9.951538461538462</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD17">
         <v>3.03</v>
@@ -2111,10 +2111,10 @@
         <v>96.84999999999999</v>
       </c>
       <c r="G18">
-        <v>12.33166666666667</v>
+        <v>12.33</v>
       </c>
       <c r="H18">
-        <v>2.254666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="I18">
         <v>10.2</v>
@@ -2132,7 +2132,7 @@
         <v>4.22</v>
       </c>
       <c r="N18">
-        <v>2.887058823529411</v>
+        <v>2.89</v>
       </c>
       <c r="O18">
         <v>8.92</v>
@@ -2165,7 +2165,7 @@
         <v>57.59</v>
       </c>
       <c r="Y18">
-        <v>4.538333333333333</v>
+        <v>4.54</v>
       </c>
       <c r="Z18">
         <v>5.03</v>
@@ -2177,7 +2177,7 @@
         <v>116.01</v>
       </c>
       <c r="AC18">
-        <v>9.951538461538462</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD18">
         <v>3.03</v>
@@ -2203,10 +2203,10 @@
         <v>109.74</v>
       </c>
       <c r="G19">
-        <v>12.33166666666667</v>
+        <v>12.33</v>
       </c>
       <c r="H19">
-        <v>2.254666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="I19">
         <v>4.3</v>
@@ -2257,7 +2257,7 @@
         <v>36.43</v>
       </c>
       <c r="Y19">
-        <v>4.538333333333333</v>
+        <v>4.54</v>
       </c>
       <c r="Z19">
         <v>3.29</v>
@@ -2269,7 +2269,7 @@
         <v>128.18</v>
       </c>
       <c r="AC19">
-        <v>9.951538461538462</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD19">
         <v>3.03</v>
@@ -2295,10 +2295,10 @@
         <v>122.63</v>
       </c>
       <c r="G20">
-        <v>12.33166666666667</v>
+        <v>12.33</v>
       </c>
       <c r="H20">
-        <v>2.254666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="I20">
         <v>8.99</v>
@@ -2316,7 +2316,7 @@
         <v>7.35</v>
       </c>
       <c r="N20">
-        <v>2.887058823529411</v>
+        <v>2.89</v>
       </c>
       <c r="O20">
         <v>12.29</v>
@@ -2349,7 +2349,7 @@
         <v>34.89</v>
       </c>
       <c r="Y20">
-        <v>4.538333333333333</v>
+        <v>4.54</v>
       </c>
       <c r="Z20">
         <v>5.76</v>
@@ -2361,7 +2361,7 @@
         <v>143.93</v>
       </c>
       <c r="AC20">
-        <v>9.951538461538462</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD20">
         <v>3.03</v>
@@ -2387,10 +2387,10 @@
         <v>139.36</v>
       </c>
       <c r="G21">
-        <v>12.33166666666667</v>
+        <v>12.33</v>
       </c>
       <c r="H21">
-        <v>2.254666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="I21">
         <v>6.59</v>
@@ -2408,7 +2408,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="N21">
-        <v>2.887058823529411</v>
+        <v>2.89</v>
       </c>
       <c r="O21">
         <v>13.1</v>
@@ -2441,7 +2441,7 @@
         <v>111.51</v>
       </c>
       <c r="Y21">
-        <v>4.538333333333333</v>
+        <v>4.54</v>
       </c>
       <c r="Z21">
         <v>5.5</v>
